--- a/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Estudios-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>0.4463982948238936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2601882462666665</v>
+        <v>0.2601882462666666</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.1510186367099047</v>
@@ -651,7 +651,7 @@
         <v>0.1690068196430434</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1091716253897008</v>
+        <v>0.1091716253897007</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1930177022814164</v>
@@ -660,7 +660,7 @@
         <v>0.2886457755803172</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1716115527367188</v>
+        <v>0.1716115527367187</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1880646177450292</v>
+        <v>0.1897851160949239</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3496536209799119</v>
+        <v>0.3503297388726199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.185323926307568</v>
+        <v>0.1820725211507027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1130441754842751</v>
+        <v>0.1145863495505001</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1223857309517117</v>
+        <v>0.120232221809245</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07812430221153058</v>
+        <v>0.07460828083441397</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1587958958496338</v>
+        <v>0.1593691647167979</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2371787170319458</v>
+        <v>0.2376802063828672</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1304437837657641</v>
+        <v>0.1300165710842912</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3179078507166335</v>
+        <v>0.3307906150965299</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5450976464537104</v>
+        <v>0.5660104051280714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3811658622475648</v>
+        <v>0.363633761002367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2032546041928745</v>
+        <v>0.1965643572336649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2375464768238162</v>
+        <v>0.2284950027803215</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1630247024282614</v>
+        <v>0.1623577399327428</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2325746657016368</v>
+        <v>0.2324903579378041</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3456909761078336</v>
+        <v>0.3450428097174874</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.215444369823767</v>
+        <v>0.2257336313604216</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.516344845224857</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.400333570130832</v>
+        <v>0.4003335701308321</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.6209586068554105</v>
@@ -769,7 +769,7 @@
         <v>0.7179006800426058</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.6729997953830869</v>
+        <v>0.6729997953830867</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7975218910664743</v>
+        <v>0.7939823651872132</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8367392564298389</v>
+        <v>0.8386871337616284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8562104799055104</v>
+        <v>0.8477646726294629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2951886357502603</v>
+        <v>0.2976953087378053</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4553383340192509</v>
+        <v>0.4527438438380511</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3500602884889092</v>
+        <v>0.350146092782624</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5727510661350086</v>
+        <v>0.5742325592716722</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6693403117442358</v>
+        <v>0.6696981662033802</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6198439480483664</v>
+        <v>0.6198471288438576</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9563169535495937</v>
+        <v>0.9545341276249512</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9942958231568669</v>
+        <v>0.9863398322883336</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.035884717307587</v>
+        <v>1.029753274161993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4062064661032699</v>
+        <v>0.4011181477505099</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5807722665205909</v>
+        <v>0.5767679433132106</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4538942417816142</v>
+        <v>0.4576123750049271</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6757702055249647</v>
+        <v>0.6753572298625385</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7672659448971061</v>
+        <v>0.7766740035511673</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7311782289841271</v>
+        <v>0.7324935061211032</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.8645661712836409</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8212291035494408</v>
+        <v>0.8212291035494406</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.9987172013563852</v>
@@ -878,7 +878,7 @@
         <v>1.06692860391542</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9385530210763514</v>
+        <v>0.9385530210763513</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.114171835313817</v>
+        <v>1.115397970136868</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.116765560430032</v>
+        <v>1.108955181975868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9122301028704424</v>
+        <v>0.916049675449604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5419906092979608</v>
+        <v>0.534080546933226</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.727870035733468</v>
+        <v>0.7326728555344096</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7196957000503168</v>
+        <v>0.7200212871971898</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8781053288866758</v>
+        <v>0.875437702764907</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.956694954851907</v>
+        <v>0.9589758647224493</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8459566588019566</v>
+        <v>0.8418170047298155</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.532348423867811</v>
+        <v>1.516261563626091</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.461209767656942</v>
+        <v>1.45644660911181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.22569522771121</v>
+        <v>1.209243289691593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8351151252723814</v>
+        <v>0.834207596127418</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.02031585762189</v>
+        <v>1.01310042605609</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9395986274449072</v>
+        <v>0.9437027006418065</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.135648769321135</v>
+        <v>1.125811379567324</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.183499834663283</v>
+        <v>1.189727089780248</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.03247599588643</v>
+        <v>1.036571305375561</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.8653272027995277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8513881642847171</v>
+        <v>0.851388164284717</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.3146323242378913</v>
@@ -987,7 +987,7 @@
         <v>0.6646096629181587</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6291713153395306</v>
+        <v>0.6291713153395307</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6895028920783883</v>
+        <v>0.6987545090345184</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.808876049758402</v>
+        <v>0.8057183983474662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7862999344347401</v>
+        <v>0.7857216481362744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2794582678866668</v>
+        <v>0.2799399108895329</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4310735247390844</v>
+        <v>0.4269053458288339</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3813978716982067</v>
+        <v>0.379309340340897</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4944221396763462</v>
+        <v>0.4948459807126819</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6268897583831394</v>
+        <v>0.628802395799013</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5888074664356806</v>
+        <v>0.591867574524502</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8154074032137643</v>
+        <v>0.8197680107580581</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9291169255477643</v>
+        <v>0.9310633463040839</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9241186455442177</v>
+        <v>0.9193163755287652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3515404047142529</v>
+        <v>0.3526738349668858</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5189563601830683</v>
+        <v>0.5183110022651891</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4628718576928557</v>
+        <v>0.4587170818825367</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5656371698955309</v>
+        <v>0.5635023224452389</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7043002514346272</v>
+        <v>0.7049912203417151</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6684038060309152</v>
+        <v>0.6681436674361584</v>
       </c>
     </row>
     <row r="16">
